--- a/TestResults/StProvStdGet.xlsx
+++ b/TestResults/StProvStdGet.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -47,15 +47,18 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>TC_01</t>
-  </si>
-  <si>
-    <t>Verify that the StProvStd service is successfully retrieving all records when no parameter is passed in URI</t>
+    <t>TC_02</t>
+  </si>
+  <si>
+    <t>Verify that the StProvStd service is successfully retrieving the records when passing the Geopolitical ID in URI</t>
   </si>
   <si>
     <t>Get</t>
   </si>
   <si>
+    <t>NA</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -65,46 +68,22 @@
     <t>200</t>
   </si>
   <si>
-    <t xml:space="preserve">
-{
-	"meta":
-	{
-		"version":"1.0.0",
-		"message":
-		{
-			"data":null,
-			"internalMessage":"There are no records for the specified criteria",
-			"status":"Success"
-		}
-	},
-	"data":
-	[
-	]
-}</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>There are no records for the specified criteria</t>
-  </si>
-  <si>
-    <t>TC_02</t>
-  </si>
-  <si>
-    <t>Verify that the StProvStd service is successfully retrieving the records when passing the Geopolitical ID in URI</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
-    <t>Total number of records matching between DB &amp; Response: 1, below are the test steps for this test case</t>
-  </si>
-  <si>
-    <t>-Response_Geopl_ID:7317162917942004948-Response_OrgStdNm:Test organisation-Response_StProvCd:Test_StCD-Response_stProvNm:Test_State_prov_Name12-Response_effectiveDate:2021-07-10-Response_expirationDate:9999-12-31</t>
+    <t>Total number of records matching between DB &amp; Response: 0, below are the test steps for this test case</t>
+  </si>
+  <si>
+    <t>TC_03</t>
+  </si>
+  <si>
+    <t>Verify that the StProvStd service is successfully retrieving the records when passing the Geopolitical ID, targetDate and endDate in URI</t>
+  </si>
+  <si>
+    <t>TC_12</t>
+  </si>
+  <si>
+    <t>Verify that the StProvStd service is not retrieving the records when passing the invalid stProvCd and valid orgStdCd  in URI</t>
   </si>
 </sst>
 </file>
@@ -129,57 +108,57 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -536,19 +515,19 @@
         <v>14</v>
       </c>
       <c r="E2" t="s" s="6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s" s="9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s" s="10">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s" s="11">
         <v>18</v>
@@ -569,64 +548,64 @@
         <v>13</v>
       </c>
       <c r="D3" t="s" s="16">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s" s="17">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s" s="18">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s" s="19">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s" s="20">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s" s="21">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J3" t="s" s="22">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K3" t="s" s="23">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="L3"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="24">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s" s="25">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s" s="26">
         <v>13</v>
       </c>
       <c r="D4" t="s" s="27">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s" s="28">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s" s="29">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s" s="30">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s" s="31">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s" s="32">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s" s="33">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K4" t="s" s="34">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="L4"/>
     </row>
